--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\GitHub\IOT_Arm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14349\git\IOT_Arm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4556A530-D50C-426F-B0D0-FD24A3BB7DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BECA093-47DA-4FAE-937A-EDB485E3195B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="8100" windowWidth="14400" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="13367" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Item Name</t>
   </si>
@@ -63,16 +63,105 @@
   </si>
   <si>
     <t>https://www.amazon.com/FANCYWING-Surface-Wrapped-Quadcopter-Multicopter/dp/B09WZZWQH5/ref=sr_1_1_sspa?crid=24WNU4MYAICVH&amp;keywords=carbon%2Bfiber%2Btube&amp;qid=1687836734&amp;sprefix=carbon%2Bfiber%2Btube%2Caps%2C82&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+  </si>
+  <si>
+    <t>Stepper Motor</t>
+  </si>
+  <si>
+    <t>Stepper Motor Controller</t>
+  </si>
+  <si>
+    <t>SD Card Slot</t>
+  </si>
+  <si>
+    <t>Type C Connector</t>
+  </si>
+  <si>
+    <t>NodeMCU</t>
+  </si>
+  <si>
+    <t>IO Expander</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5 Inch TFT LCD </t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hosyond-Display-320x240-Compatible-Development/dp/B0BWJHK4M6/ref=sr_1_3?crid=IURLSL69CDPH&amp;keywords=3.2%2Binch%2Btft%2Blcd&amp;qid=1688932853&amp;sprefix=3.2%2Binch%2Btft%2Blcd%2Caps%2C299&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Twotrees-Nema17-Stepper-Bipolar-Printer/dp/B07TGJSNJB/ref=sr_1_3_sspa?crid=2BA5UE9OAR3T8&amp;keywords=Stepper+motor&amp;qid=1688932998&amp;sprefix=stepper+moto%2Caps%2C105&amp;sr=8-3-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/BIQU-Printer-Stepstick-TMC2208-Heatsink/dp/B07RLXLW1X/ref=sr_1_4?crid=20CRVUWF42265&amp;keywords=Stepper%2BMotor%2Bdriver%2Buart&amp;qid=1688933077&amp;sprefix=stepper%2Bmotor%2Bdriver%2Buar%2Caps%2C122&amp;sr=8-4&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Taiss-KY-040-Encoder-15%C3%9716-5-Arduino/dp/B07F26CT6B/ref=sr_1_1_sspa?crid=60NW2DVEYM1V&amp;keywords=Encoder&amp;qid=1688933198&amp;sprefix=encode%2Caps%2C144&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Module-Storage-Adapter-Interface-Arduino/dp/B07PFDFPPC/ref=sr_1_1_sspa?crid=3LQ4APDDRRO0T&amp;keywords=SD+Card+arduino&amp;qid=1688933247&amp;sprefix=sd+card+arduino%2Caps%2C90&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1&amp;smid=A2ZDGCOOU4F0SF</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Breakout-Female-Connector-Converter-Header/dp/B0BHZYPYFJ/ref=sr_1_1_sspa?crid=T8UTL9IXWAPC&amp;keywords=Type+C+breakout&amp;qid=1688933278&amp;sprefix=type+c+breakout%2Caps%2C112&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HiLetgo-Internet-Development-Wireless-Micropython/dp/B081CSJV2V/ref=sr_1_3?crid=1AWTPDZF38JFH&amp;keywords=Node+MCU&amp;qid=1688933452&amp;sprefix=node+mcu%2Caps%2C91&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/MCP23017-E%2FSP/894272?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Product_Medium%20ROAS%20Categories&amp;utm_term=&amp;utm_content=&amp;gclid=Cj0KCQjwtamlBhD3ARIsAARoaEwhYN8pFqHS9WgsHkkVfU7vU7I7frJoNfbujQHu8gVJGXImeRdvb2MaAoG-EALw_wcB</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>ASIN</t>
+  </si>
+  <si>
+    <t>B09WZZWQH5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,16 +184,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,73 +484,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.41015625" customWidth="1"/>
+    <col min="2" max="2" width="19.17578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.17578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.52734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
         <v>28.98</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <f>C2*D2</f>
+      <c r="G2">
+        <f>E2*F2</f>
         <v>57.96</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
         <v>9.99</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f>C3*D3</f>
+      <c r="G3">
+        <f>E3*F3</f>
         <v>9.99</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G11" si="0">E4*F4</f>
+        <v>33.979999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>9.99</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>39.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>22.99</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>45.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>9.99</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>9.99</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>6.99</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>15.99</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1.69</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>239.28000000000003</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="https://www.amazon.com/Module-Storage-Adapter-Interface-Arduino/dp/B07PFDFPPC/ref=sr_1_1_sspa?crid=3LQ4APDDRRO0T&amp;keywords=SD+Card+arduino&amp;qid=1688933247&amp;sprefix=sd+card+arduino%2Caps%2C90&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1&amp;smid=A2ZDGCOOU4F0SF" xr:uid="{F34F9311-1F9C-45B8-8E5E-E22330D4B30E}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{518D1C5F-DD76-44B6-B621-230B1357C5EE}"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://www.digikey.com/en/products/detail/microchip-technology/MCP23017-E%2FSP/894272?utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Product_Medium%20ROAS%20Categories&amp;utm_term=&amp;utm_content=&amp;gclid=Cj0KCQjwtamlBhD3ARIsAARoaEwhYN8pFqHS9WgsHkkVfU7vU7I7frJoNfbujQHu8gVJGXImeRdvb2MaAoG-EALw_wcB" xr:uid="{85682E79-7BB2-4760-BF28-695FA1464002}"/>
+    <hyperlink ref="B2" r:id="rId4" display="https://www.amazon.com/FANCYWING-Surface-Wrapped-Quadcopter-Multicopter/dp/B09WZZWQH5/ref=sr_1_1_sspa?crid=24WNU4MYAICVH&amp;keywords=carbon%2Bfiber%2Btube&amp;qid=1687836734&amp;sprefix=carbon%2Bfiber%2Btube%2Caps%2C82&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1" xr:uid="{548D268D-39D8-45A4-B657-ABC3076E58ED}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{BFC689FF-D228-4D14-B133-C60CB9DFFAA3}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{6F01F51E-8658-4822-8695-9CAB339EBEF6}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{E590DCEA-0306-4473-A52C-D549B6AA4E59}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{02BE5BA9-CE91-44CA-BD04-B8ECE0216CF8}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{FF34D011-635B-4454-BF97-7FFE77A6E287}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{CBE89DDE-3FAF-46FD-B503-9F07CEBF2FC6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>